--- a/ЕГЭ/Варианты/2023/Вариант 8/Задание 18/18.xlsx
+++ b/ЕГЭ/Варианты/2023/Вариант 8/Задание 18/18.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikdor\Projects\School\ЕГЭ\Варианты\2023\Вариант 8\Задание 18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,48 +520,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,14 +569,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -609,9 +617,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -855,13 +863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-63</v>
       </c>
@@ -899,7 +909,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>98</v>
       </c>
@@ -937,7 +947,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-77</v>
       </c>
@@ -975,7 +985,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-22</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-100</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-99</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-68</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>86</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>78</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1276,6 +1286,564 @@
         <v>-49</v>
       </c>
       <c r="L11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1751</v>
+      </c>
+      <c r="D14">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>A1 + MIN($C17, D16)</f>
+        <v>-453</v>
+      </c>
+      <c r="D16">
+        <f>B1 + MIN($C17, E16)</f>
+        <v>-390</v>
+      </c>
+      <c r="E16">
+        <f>C1 + MIN($C17, F16)</f>
+        <v>-335</v>
+      </c>
+      <c r="F16">
+        <f>D1 + MIN($C17, G16)</f>
+        <v>-283</v>
+      </c>
+      <c r="G16">
+        <f>E1 + MIN($C17, H16)</f>
+        <v>-283</v>
+      </c>
+      <c r="H16">
+        <f>F1 + MIN($C17, I16)</f>
+        <v>-247</v>
+      </c>
+      <c r="I16">
+        <f>G1 + MIN($C17, J16)</f>
+        <v>-332</v>
+      </c>
+      <c r="J16">
+        <f>H1 + MIN($C17, K16)</f>
+        <v>-236</v>
+      </c>
+      <c r="K16">
+        <f>I1 + MIN($C17, L16)</f>
+        <v>-272</v>
+      </c>
+      <c r="L16">
+        <f>J1 + MIN($C17, M16)</f>
+        <v>-224</v>
+      </c>
+      <c r="M16">
+        <f>K1 + MIN($C17, N16)</f>
+        <v>-199</v>
+      </c>
+      <c r="N16">
+        <f>L1 + MIN($C17, O16)</f>
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>A2 + MIN($C18, D17)</f>
+        <v>-110</v>
+      </c>
+      <c r="D17">
+        <f>B2 + MIN($C18, E17)</f>
+        <v>-148</v>
+      </c>
+      <c r="E17">
+        <f>C2 + MIN($C18, F17)</f>
+        <v>-240</v>
+      </c>
+      <c r="F17">
+        <f>D2 + MIN($C18, G17)</f>
+        <v>-178</v>
+      </c>
+      <c r="G17">
+        <f>E2 + MIN($C18, H17)</f>
+        <v>-232</v>
+      </c>
+      <c r="H17">
+        <f>F2 + MIN($C18, I17)</f>
+        <v>-197</v>
+      </c>
+      <c r="I17">
+        <f>G2 + MIN($C18, J17)</f>
+        <v>-213</v>
+      </c>
+      <c r="J17">
+        <f>H2 + MIN($C18, K17)</f>
+        <v>-246</v>
+      </c>
+      <c r="K17">
+        <f>I2 + MIN($C18, L17)</f>
+        <v>-129</v>
+      </c>
+      <c r="L17">
+        <f>J2 + MIN($C18, M17)</f>
+        <v>-227</v>
+      </c>
+      <c r="M17">
+        <f>K2 + MIN($C18, N17)</f>
+        <v>-272</v>
+      </c>
+      <c r="N17">
+        <f>L2 + MIN($C18, O17)</f>
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>A3 + MIN($C19, D18)</f>
+        <v>-208</v>
+      </c>
+      <c r="D18">
+        <f>B3 + MIN($C19, E18)</f>
+        <v>-131</v>
+      </c>
+      <c r="E18">
+        <f>C3 + MIN($C19, F18)</f>
+        <v>-124</v>
+      </c>
+      <c r="F18">
+        <f>D3 + MIN($C19, G18)</f>
+        <v>-143</v>
+      </c>
+      <c r="G18">
+        <f>E3 + MIN($C19, H18)</f>
+        <v>-111</v>
+      </c>
+      <c r="H18">
+        <f>F3 + MIN($C19, I18)</f>
+        <v>-154</v>
+      </c>
+      <c r="I18">
+        <f>G3 + MIN($C19, J18)</f>
+        <v>-142</v>
+      </c>
+      <c r="J18">
+        <f>H3 + MIN($C19, K18)</f>
+        <v>-225</v>
+      </c>
+      <c r="K18">
+        <f>I3 + MIN($C19, L18)</f>
+        <v>-179</v>
+      </c>
+      <c r="L18">
+        <f>J3 + MIN($C19, M18)</f>
+        <v>-162</v>
+      </c>
+      <c r="M18">
+        <f>K3 + MIN($C19, N18)</f>
+        <v>-143</v>
+      </c>
+      <c r="N18">
+        <f>L3 + MIN($C19, O18)</f>
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>A4 + MIN($C20, D19)</f>
+        <v>-110</v>
+      </c>
+      <c r="D19">
+        <f>B4 + MIN($C20, E19)</f>
+        <v>-88</v>
+      </c>
+      <c r="E19">
+        <f>C4 + MIN($C20, F19)</f>
+        <v>-70</v>
+      </c>
+      <c r="F19">
+        <f>D4 + MIN($C20, G19)</f>
+        <v>-63</v>
+      </c>
+      <c r="G19">
+        <f>E4 + MIN($C20, H19)</f>
+        <v>-92</v>
+      </c>
+      <c r="H19">
+        <f>F4 + MIN($C20, I19)</f>
+        <v>-44</v>
+      </c>
+      <c r="I19">
+        <f>G4 + MIN($C20, J19)</f>
+        <v>-44</v>
+      </c>
+      <c r="J19">
+        <f>H4 + MIN($C20, K19)</f>
+        <v>-12</v>
+      </c>
+      <c r="K19">
+        <f>I4 + MIN($C20, L19)</f>
+        <v>-33</v>
+      </c>
+      <c r="L19">
+        <f>J4 + MIN($C20, M19)</f>
+        <v>-129</v>
+      </c>
+      <c r="M19">
+        <f>K4 + MIN($C20, N19)</f>
+        <v>-73</v>
+      </c>
+      <c r="N19">
+        <f>L4 + MIN($C20, O19)</f>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>A5 + MIN($C21, D20)</f>
+        <v>-64</v>
+      </c>
+      <c r="D20">
+        <f>B5 + MIN($C21, E20)</f>
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <f>C5 + MIN($C21, F20)</f>
+        <v>111</v>
+      </c>
+      <c r="F20">
+        <f>D5 + MIN($C21, G20)</f>
+        <v>99</v>
+      </c>
+      <c r="G20">
+        <f>E5 + MIN($C21, H20)</f>
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <f>F5 + MIN($C21, I20)</f>
+        <v>74</v>
+      </c>
+      <c r="I20">
+        <f>G5 + MIN($C21, J20)</f>
+        <v>135</v>
+      </c>
+      <c r="J20">
+        <f>H5 + MIN($C21, K20)</f>
+        <v>61</v>
+      </c>
+      <c r="K20">
+        <f>I5 + MIN($C21, L20)</f>
+        <v>101</v>
+      </c>
+      <c r="L20">
+        <f>J5 + MIN($C21, M20)</f>
+        <v>78</v>
+      </c>
+      <c r="M20">
+        <f>K5 + MIN($C21, N20)</f>
+        <v>82</v>
+      </c>
+      <c r="N20">
+        <f>L5 + MIN($C21, O20)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>A6 + MIN($C22, D21)</f>
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <f>B6 + MIN($C22, E21)</f>
+        <v>311</v>
+      </c>
+      <c r="E21">
+        <f>C6 + MIN($C22, F21)</f>
+        <v>251</v>
+      </c>
+      <c r="F21">
+        <f>D6 + MIN($C22, G21)</f>
+        <v>157</v>
+      </c>
+      <c r="G21">
+        <f>E6 + MIN($C22, H21)</f>
+        <v>264</v>
+      </c>
+      <c r="H21">
+        <f>F6 + MIN($C22, I21)</f>
+        <v>231</v>
+      </c>
+      <c r="I21">
+        <f>G6 + MIN($C22, J21)</f>
+        <v>299</v>
+      </c>
+      <c r="J21">
+        <f>H6 + MIN($C22, K21)</f>
+        <v>294</v>
+      </c>
+      <c r="K21">
+        <f>I6 + MIN($C22, L21)</f>
+        <v>281</v>
+      </c>
+      <c r="L21">
+        <f>J6 + MIN($C22, M21)</f>
+        <v>262</v>
+      </c>
+      <c r="M21">
+        <f>K6 + MIN($C22, N21)</f>
+        <v>254</v>
+      </c>
+      <c r="N21">
+        <f>L6 + MIN($C22, O21)</f>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>A7 + MIN($C23, D22)</f>
+        <v>218</v>
+      </c>
+      <c r="D22">
+        <f>B7 + MIN($C23, E22)</f>
+        <v>194</v>
+      </c>
+      <c r="E22">
+        <f>C7 + MIN($C23, F22)</f>
+        <v>232</v>
+      </c>
+      <c r="F22">
+        <f>D7 + MIN($C23, G22)</f>
+        <v>195</v>
+      </c>
+      <c r="G22">
+        <f>E7 + MIN($C23, H22)</f>
+        <v>184</v>
+      </c>
+      <c r="H22">
+        <f>F7 + MIN($C23, I22)</f>
+        <v>88</v>
+      </c>
+      <c r="I22">
+        <f>G7 + MIN($C23, J22)</f>
+        <v>152</v>
+      </c>
+      <c r="J22">
+        <f>H7 + MIN($C23, K22)</f>
+        <v>248</v>
+      </c>
+      <c r="K22">
+        <f>I7 + MIN($C23, L22)</f>
+        <v>160</v>
+      </c>
+      <c r="L22">
+        <f>J7 + MIN($C23, M22)</f>
+        <v>222</v>
+      </c>
+      <c r="M22">
+        <f>K7 + MIN($C23, N22)</f>
+        <v>125</v>
+      </c>
+      <c r="N22">
+        <f>L7 + MIN($C23, O22)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>A8 + MIN($C24, D23)</f>
+        <v>187</v>
+      </c>
+      <c r="D23">
+        <f>B8 + MIN($C24, E23)</f>
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <f>C8 + MIN($C24, F23)</f>
+        <v>279</v>
+      </c>
+      <c r="F23">
+        <f>D8 + MIN($C24, G23)</f>
+        <v>238</v>
+      </c>
+      <c r="G23">
+        <f>E8 + MIN($C24, H23)</f>
+        <v>281</v>
+      </c>
+      <c r="H23">
+        <f>F8 + MIN($C24, I23)</f>
+        <v>240</v>
+      </c>
+      <c r="I23">
+        <f>G8 + MIN($C24, J23)</f>
+        <v>338</v>
+      </c>
+      <c r="J23">
+        <f>H8 + MIN($C24, K23)</f>
+        <v>260</v>
+      </c>
+      <c r="K23">
+        <f>I8 + MIN($C24, L23)</f>
+        <v>256</v>
+      </c>
+      <c r="L23">
+        <f>J8 + MIN($C24, M23)</f>
+        <v>289</v>
+      </c>
+      <c r="M23">
+        <f>K8 + MIN($C24, N23)</f>
+        <v>312</v>
+      </c>
+      <c r="N23">
+        <f>L8 + MIN($C24, O23)</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>A9 + MIN($C25, D24)</f>
+        <v>338</v>
+      </c>
+      <c r="D24">
+        <f>B9 + MIN($C25, E24)</f>
+        <v>252</v>
+      </c>
+      <c r="E24">
+        <f>C9 + MIN($C25, F24)</f>
+        <v>198</v>
+      </c>
+      <c r="F24">
+        <f>D9 + MIN($C25, G24)</f>
+        <v>163</v>
+      </c>
+      <c r="G24">
+        <f>E9 + MIN($C25, H24)</f>
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <f>F9 + MIN($C25, I24)</f>
+        <v>193</v>
+      </c>
+      <c r="I24">
+        <f>G9 + MIN($C25, J24)</f>
+        <v>122</v>
+      </c>
+      <c r="J24">
+        <f>H9 + MIN($C25, K24)</f>
+        <v>106</v>
+      </c>
+      <c r="K24">
+        <f>I9 + MIN($C25, L24)</f>
+        <v>124</v>
+      </c>
+      <c r="L24">
+        <f>J9 + MIN($C25, M24)</f>
+        <v>193</v>
+      </c>
+      <c r="M24">
+        <f>K9 + MIN($C25, N24)</f>
+        <v>256</v>
+      </c>
+      <c r="N24">
+        <f>L9 + MIN($C25, O24)</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>A10 + MIN($C26, D25)</f>
+        <v>329</v>
+      </c>
+      <c r="D25">
+        <f>B10 + MIN($C26, E25)</f>
+        <v>251</v>
+      </c>
+      <c r="E25">
+        <f>C10 + MIN($C26, F25)</f>
+        <v>263</v>
+      </c>
+      <c r="F25">
+        <f>D10 + MIN($C26, G25)</f>
+        <v>299</v>
+      </c>
+      <c r="G25">
+        <f>E10 + MIN($C26, H25)</f>
+        <v>277</v>
+      </c>
+      <c r="H25">
+        <f>F10 + MIN($C26, I25)</f>
+        <v>252</v>
+      </c>
+      <c r="I25">
+        <f>G10 + MIN($C26, J25)</f>
+        <v>248</v>
+      </c>
+      <c r="J25">
+        <f>H10 + MIN($C26, K25)</f>
+        <v>307</v>
+      </c>
+      <c r="K25">
+        <f>I10 + MIN($C26, L25)</f>
+        <v>312</v>
+      </c>
+      <c r="L25">
+        <f>J10 + MIN($C26, M25)</f>
+        <v>296</v>
+      </c>
+      <c r="M25">
+        <f>K10 + MIN($C26, N25)</f>
+        <v>428</v>
+      </c>
+      <c r="N25">
+        <f>L10 + MIN($C26, O25)</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>A11 + MIN($C27, D26)</f>
+        <v>336</v>
+      </c>
+      <c r="D26">
+        <f>B11 + MIN($C27, E26)</f>
+        <v>313</v>
+      </c>
+      <c r="E26">
+        <f>C11 + MIN($C27, F26)</f>
+        <v>283</v>
+      </c>
+      <c r="F26">
+        <f>D11 + MIN($C27, G26)</f>
+        <v>293</v>
+      </c>
+      <c r="G26">
+        <f>E11 + MIN($C27, H26)</f>
+        <v>204</v>
+      </c>
+      <c r="H26">
+        <f>F11 + MIN($C27, I26)</f>
+        <v>109</v>
+      </c>
+      <c r="I26">
+        <f>G11 + MIN($C27, J26)</f>
+        <v>89</v>
+      </c>
+      <c r="J26">
+        <f>H11 + MIN($C27, K26)</f>
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <f>I11 + MIN($C27, L26)</f>
+        <v>99</v>
+      </c>
+      <c r="L26">
+        <f>J11 + MIN($C27, M26)</f>
+        <v>41</v>
+      </c>
+      <c r="M26">
+        <f>K11 + MIN($C27, N26)</f>
+        <v>44</v>
+      </c>
+      <c r="N26">
+        <f>L11 + MIN($C27, O26)</f>
         <v>93</v>
       </c>
     </row>
